--- a/data/trans_orig/P11_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P11_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>42451</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31201</v>
+        <v>31102</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57612</v>
+        <v>55983</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07267284163596997</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05341266974543707</v>
+        <v>0.05324483656408186</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09862614380886126</v>
+        <v>0.0958378395521285</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -765,19 +765,19 @@
         <v>76961</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60692</v>
+        <v>62292</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94319</v>
+        <v>95585</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08344118052093957</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06580288127146203</v>
+        <v>0.06753724295712622</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1022615834048517</v>
+        <v>0.1036340068125288</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -786,19 +786,19 @@
         <v>119412</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101014</v>
+        <v>100377</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>143706</v>
+        <v>141521</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0792657149155819</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06705328777416522</v>
+        <v>0.06663011024850456</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09539203221895108</v>
+        <v>0.09394198931547257</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>541690</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>526529</v>
+        <v>528158</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>552940</v>
+        <v>553039</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.92732715836403</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9013738561911386</v>
+        <v>0.9041621604478715</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9465873302545629</v>
+        <v>0.9467551634359181</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>810</v>
@@ -836,19 +836,19 @@
         <v>845372</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>828014</v>
+        <v>826748</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>861641</v>
+        <v>860041</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9165588194790604</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8977384165951477</v>
+        <v>0.896365993187471</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9341971187285373</v>
+        <v>0.9324627570428735</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1340</v>
@@ -857,19 +857,19 @@
         <v>1387062</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1362768</v>
+        <v>1364953</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1405460</v>
+        <v>1406097</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9207342850844181</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.904607967781049</v>
+        <v>0.9060580106845273</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9329467122258348</v>
+        <v>0.9333698897514954</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>27567</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18726</v>
+        <v>17880</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39709</v>
+        <v>39492</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02557485981419126</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01737278645992556</v>
+        <v>0.01658776247107133</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03683939037641747</v>
+        <v>0.03663780276886312</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -982,19 +982,19 @@
         <v>36721</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25560</v>
+        <v>26576</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50234</v>
+        <v>50211</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03472309916361973</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02416947864185369</v>
+        <v>0.02513031991091902</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04750096906165227</v>
+        <v>0.04747882977292407</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -1003,19 +1003,19 @@
         <v>64288</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49972</v>
+        <v>50133</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80922</v>
+        <v>82328</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03010537664266681</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0234012741919846</v>
+        <v>0.02347665276825958</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03789509606336942</v>
+        <v>0.03855355557938921</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1050327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1038185</v>
+        <v>1038402</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1059168</v>
+        <v>1060014</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9744251401858087</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9631606096235825</v>
+        <v>0.9633621972311367</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9826272135400743</v>
+        <v>0.9834122375289284</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>993</v>
@@ -1053,19 +1053,19 @@
         <v>1020817</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1007304</v>
+        <v>1007327</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1031978</v>
+        <v>1030962</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9652769008363803</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9524990309383478</v>
+        <v>0.9525211702270759</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9758305213581464</v>
+        <v>0.974869680089081</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2021</v>
@@ -1074,19 +1074,19 @@
         <v>2071144</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2054510</v>
+        <v>2053104</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2085460</v>
+        <v>2085299</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9698946233573332</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9621049039366306</v>
+        <v>0.9614464444206109</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9765987258080153</v>
+        <v>0.9765233472317405</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>26410</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17443</v>
+        <v>17057</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37811</v>
+        <v>39352</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02354721828402219</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01555184121618079</v>
+        <v>0.01520738312156454</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03371145259291425</v>
+        <v>0.03508564132529588</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -1199,19 +1199,19 @@
         <v>39679</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28700</v>
+        <v>28490</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52773</v>
+        <v>53869</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03992137835789799</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02887506979388245</v>
+        <v>0.02866363047817539</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05309459906068289</v>
+        <v>0.0541976181135488</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>64</v>
@@ -1220,19 +1220,19 @@
         <v>66090</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51430</v>
+        <v>50980</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83127</v>
+        <v>82931</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03124027692156195</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02431080044618003</v>
+        <v>0.0240977276586238</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03929345845989551</v>
+        <v>0.03920088064828352</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1095184</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1083783</v>
+        <v>1082242</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1104151</v>
+        <v>1104537</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9764527817159778</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9662885474070858</v>
+        <v>0.9649143586747064</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9844481587838194</v>
+        <v>0.9847926168784356</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>944</v>
@@ -1270,19 +1270,19 @@
         <v>954261</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>941167</v>
+        <v>940071</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>965240</v>
+        <v>965450</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.960078621642102</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9469054009393172</v>
+        <v>0.9458023818864512</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9711249302061176</v>
+        <v>0.9713363695218246</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2021</v>
@@ -1291,19 +1291,19 @@
         <v>2049444</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2032407</v>
+        <v>2032603</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2064104</v>
+        <v>2064554</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9687597230784381</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9607065415401045</v>
+        <v>0.9607991193517165</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9756891995538199</v>
+        <v>0.9759022723413762</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>13210</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7316</v>
+        <v>7529</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22552</v>
+        <v>21769</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02953984031347127</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01636008053639493</v>
+        <v>0.01683688582910603</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0504289603649917</v>
+        <v>0.0486787824480221</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1416,19 +1416,19 @@
         <v>13089</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6727</v>
+        <v>6934</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21371</v>
+        <v>21737</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03836576144779271</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01971744360792914</v>
+        <v>0.02032420527164148</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06264351226575761</v>
+        <v>0.06371473017159932</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -1437,19 +1437,19 @@
         <v>26299</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17396</v>
+        <v>17836</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37768</v>
+        <v>38404</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03335921639090644</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02206645841536571</v>
+        <v>0.02262383588058382</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04790728423655375</v>
+        <v>0.04871418802423582</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>433990</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>424648</v>
+        <v>425431</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>439884</v>
+        <v>439671</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9704601596865288</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9495710396350082</v>
+        <v>0.9513212175519778</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.983639919463605</v>
+        <v>0.983163114170894</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>327</v>
@@ -1487,19 +1487,19 @@
         <v>328069</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>319787</v>
+        <v>319421</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>334431</v>
+        <v>334224</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9616342385522073</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9373564877342423</v>
+        <v>0.9362852698284005</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9802825563920707</v>
+        <v>0.9796757947283584</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>750</v>
@@ -1508,19 +1508,19 @@
         <v>762059</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>750590</v>
+        <v>749954</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>770962</v>
+        <v>770522</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9666407836090936</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9520927157634462</v>
+        <v>0.9512858119757641</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9779335415846343</v>
+        <v>0.9773761641194162</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>109639</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>91342</v>
+        <v>90158</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>130818</v>
+        <v>130703</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03393519863069042</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02827193519554031</v>
+        <v>0.02790566626899727</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04049053709805472</v>
+        <v>0.04045504904422187</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>160</v>
@@ -1633,19 +1633,19 @@
         <v>166450</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>142293</v>
+        <v>144086</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>194832</v>
+        <v>193769</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05021157080735004</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04292438090809808</v>
+        <v>0.04346516553757163</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05877332170775831</v>
+        <v>0.05845274795691075</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>270</v>
@@ -1654,19 +1654,19 @@
         <v>276089</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>243666</v>
+        <v>245617</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>309764</v>
+        <v>310860</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04217799275968168</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03722475199763912</v>
+        <v>0.03752290897723116</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0473226141511655</v>
+        <v>0.04749005633582067</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3121190</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3100011</v>
+        <v>3100126</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3139487</v>
+        <v>3140671</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9660648013693096</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9595094629019451</v>
+        <v>0.9595449509557781</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9717280648044595</v>
+        <v>0.9720943337310027</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3074</v>
@@ -1704,19 +1704,19 @@
         <v>3148519</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3120137</v>
+        <v>3121200</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3172676</v>
+        <v>3170883</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9497884291926499</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9412266782922418</v>
+        <v>0.9415472520430894</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9570756190919022</v>
+        <v>0.9565348344624284</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6132</v>
@@ -1725,19 +1725,19 @@
         <v>6269709</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6236034</v>
+        <v>6234938</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6302132</v>
+        <v>6300181</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9578220072403183</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9526773858488345</v>
+        <v>0.9525099436641794</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9627752480023609</v>
+        <v>0.962477091022769</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>67938</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51776</v>
+        <v>51009</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84964</v>
+        <v>85278</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06521735306128142</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0497021714057141</v>
+        <v>0.0489659888717761</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08156078978916309</v>
+        <v>0.08186231976877408</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>135</v>
@@ -2090,19 +2090,19 @@
         <v>145271</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>123831</v>
+        <v>124749</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>170200</v>
+        <v>168777</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.130054514315134</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1108605166378495</v>
+        <v>0.1116824228028477</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1523727554807731</v>
+        <v>0.1510989866943207</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>196</v>
@@ -2111,19 +2111,19 @@
         <v>213209</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>184631</v>
+        <v>185483</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>243090</v>
+        <v>243077</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09876636400646724</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0855279337849085</v>
+        <v>0.08592239504056591</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1126084365536215</v>
+        <v>0.1126022976022111</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>973786</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>956760</v>
+        <v>956446</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>989948</v>
+        <v>990715</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9347826469387186</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9184392102108366</v>
+        <v>0.9181376802312257</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9502978285942859</v>
+        <v>0.9510340111282238</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>893</v>
@@ -2161,19 +2161,19 @@
         <v>971727</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>946798</v>
+        <v>948221</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>993167</v>
+        <v>992249</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8699454856848661</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8476272445192268</v>
+        <v>0.8489010133056792</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8891394833621502</v>
+        <v>0.8883175771971523</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1809</v>
@@ -2182,19 +2182,19 @@
         <v>1945513</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1915632</v>
+        <v>1915645</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1974091</v>
+        <v>1973239</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9012336359935328</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8873915634463786</v>
+        <v>0.8873977023977889</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9144720662150915</v>
+        <v>0.9140776049594341</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>45184</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31267</v>
+        <v>33098</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60630</v>
+        <v>62165</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04637542788584646</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03209191822677279</v>
+        <v>0.03397131749782376</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06222857035503042</v>
+        <v>0.06380437932169186</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>99</v>
@@ -2307,19 +2307,19 @@
         <v>107850</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>88791</v>
+        <v>89405</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>129516</v>
+        <v>130999</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09855985009196588</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08114203489457771</v>
+        <v>0.08170358961482017</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1183594658321966</v>
+        <v>0.1197140926383732</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>137</v>
@@ -2328,19 +2328,19 @@
         <v>153034</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>128441</v>
+        <v>128576</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>177467</v>
+        <v>179995</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07398074574281985</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06209157322614484</v>
+        <v>0.06215711160779596</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08579221506725691</v>
+        <v>0.08701414953903638</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>929121</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>913675</v>
+        <v>912140</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>943038</v>
+        <v>941207</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9536245721141535</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9377714296449695</v>
+        <v>0.9361956206783077</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9679080817732273</v>
+        <v>0.9660286825021762</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>921</v>
@@ -2378,19 +2378,19 @@
         <v>986412</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>964746</v>
+        <v>963263</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1005471</v>
+        <v>1004857</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9014401499080341</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8816405341678033</v>
+        <v>0.8802859073616268</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9188579651054222</v>
+        <v>0.9182964103851797</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1804</v>
@@ -2399,19 +2399,19 @@
         <v>1915533</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1891100</v>
+        <v>1888572</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1940126</v>
+        <v>1939991</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9260192542571801</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9142077849327429</v>
+        <v>0.9129858504609636</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9379084267738551</v>
+        <v>0.937842888392204</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>39612</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28757</v>
+        <v>29893</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53067</v>
+        <v>54790</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04492197080590143</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03261190677616974</v>
+        <v>0.03390054437619366</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06018053811814818</v>
+        <v>0.06213420985390343</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -2524,19 +2524,19 @@
         <v>55830</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42294</v>
+        <v>41562</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73330</v>
+        <v>72660</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06374755662409641</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04829176935704266</v>
+        <v>0.0474563760832511</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08372943005017529</v>
+        <v>0.08296494478058711</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>89</v>
@@ -2545,19 +2545,19 @@
         <v>95442</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76962</v>
+        <v>77350</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>116520</v>
+        <v>117806</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05430262403866741</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04378844833395733</v>
+        <v>0.04400910303276846</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06629539706218103</v>
+        <v>0.06702677703578784</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>842185</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>828730</v>
+        <v>827007</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>853040</v>
+        <v>851904</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9550780291940986</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9398194618818518</v>
+        <v>0.9378657901460965</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9673880932238303</v>
+        <v>0.9660994556238064</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>771</v>
@@ -2595,19 +2595,19 @@
         <v>819966</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>802466</v>
+        <v>803136</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>833502</v>
+        <v>834234</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9362524433759036</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9162705699498246</v>
+        <v>0.9170350552194123</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9517082306429572</v>
+        <v>0.9525436239167487</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1559</v>
@@ -2616,19 +2616,19 @@
         <v>1662151</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1641073</v>
+        <v>1639787</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1680631</v>
+        <v>1680243</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9456973759613326</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.933704602937819</v>
+        <v>0.9329732229642119</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9562115516660427</v>
+        <v>0.9559908969672314</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>20098</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12111</v>
+        <v>11543</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32384</v>
+        <v>32377</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04066575789983178</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02450387356775201</v>
+        <v>0.02335649134809707</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06552521577156489</v>
+        <v>0.0655107178469102</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -2741,19 +2741,19 @@
         <v>38457</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28414</v>
+        <v>26475</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52526</v>
+        <v>51924</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08511967196218426</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06289041054186736</v>
+        <v>0.05859796369135383</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1162585634694008</v>
+        <v>0.1149267281143311</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -2762,19 +2762,19 @@
         <v>58555</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42905</v>
+        <v>44543</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76901</v>
+        <v>77001</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06189586298199577</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04535287672797397</v>
+        <v>0.04708396230005365</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08128831334131337</v>
+        <v>0.08139436700472368</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>474131</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>461845</v>
+        <v>461852</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>482118</v>
+        <v>482686</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9593342421001683</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9344747842284352</v>
+        <v>0.9344892821530898</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.975496126432248</v>
+        <v>0.9766435086519031</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>376</v>
@@ -2812,19 +2812,19 @@
         <v>413343</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>399274</v>
+        <v>399876</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>423386</v>
+        <v>425325</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9148803280378157</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8837414365305992</v>
+        <v>0.8850732718856689</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9371095894581326</v>
+        <v>0.9414020363086462</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>811</v>
@@ -2833,19 +2833,19 @@
         <v>887474</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>869128</v>
+        <v>869028</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>903124</v>
+        <v>901486</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9381041370180042</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9187116866586872</v>
+        <v>0.9186056329952762</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9546471232720261</v>
+        <v>0.9529160376999463</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>172832</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>147049</v>
+        <v>147377</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>203225</v>
+        <v>202952</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05095216635788608</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04335089270551679</v>
+        <v>0.04344757388404281</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05991193358157623</v>
+        <v>0.05983148721931621</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>319</v>
@@ -2958,19 +2958,19 @@
         <v>347408</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>312440</v>
+        <v>308480</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>382693</v>
+        <v>385029</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09816953702158454</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08828830360486853</v>
+        <v>0.08716937291145291</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1081403080050461</v>
+        <v>0.1088003021235628</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>474</v>
@@ -2979,19 +2979,19 @@
         <v>520240</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>473678</v>
+        <v>482079</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>568042</v>
+        <v>570709</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07506090345917869</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06834280446936947</v>
+        <v>0.06955495828321559</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08195775565205506</v>
+        <v>0.08234255551487216</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3219222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3188829</v>
+        <v>3189102</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3245005</v>
+        <v>3244677</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9490478336421139</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9400880664184237</v>
+        <v>0.9401685127806838</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9566491072944832</v>
+        <v>0.9565524261159571</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2961</v>
@@ -3029,19 +3029,19 @@
         <v>3191448</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3156163</v>
+        <v>3153827</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3226416</v>
+        <v>3230376</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9018304629784155</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8918596919949541</v>
+        <v>0.8911996978764372</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9117116963951316</v>
+        <v>0.9128306270885471</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5983</v>
@@ -3050,19 +3050,19 @@
         <v>6410670</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6362868</v>
+        <v>6360201</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6457232</v>
+        <v>6448831</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9249390965408213</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.918042244347945</v>
+        <v>0.9176574444851281</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9316571955306306</v>
+        <v>0.9304450417167847</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>65262</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51437</v>
+        <v>50061</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84817</v>
+        <v>82765</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05820836749086845</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04587762577590215</v>
+        <v>0.04465028040876355</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07564911852728387</v>
+        <v>0.07381942182759364</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>138</v>
@@ -3415,19 +3415,19 @@
         <v>157976</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>134900</v>
+        <v>136091</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>185479</v>
+        <v>185118</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1267721472467025</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1082537982185074</v>
+        <v>0.1092098601342918</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1488421444419188</v>
+        <v>0.1485525285358567</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>201</v>
@@ -3436,19 +3436,19 @@
         <v>223239</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>196166</v>
+        <v>196760</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>254307</v>
+        <v>255292</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09429979097046937</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08286364790477858</v>
+        <v>0.08311461496161948</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1074235067906603</v>
+        <v>0.1078396295066178</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1055924</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1036369</v>
+        <v>1038421</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1069749</v>
+        <v>1071125</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9417916325091316</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.924350881472716</v>
+        <v>0.9261805781724063</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9541223742240978</v>
+        <v>0.9553497195912364</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1037</v>
@@ -3486,19 +3486,19 @@
         <v>1088167</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1060664</v>
+        <v>1061025</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1111243</v>
+        <v>1110052</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8732278527532975</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8511578555580811</v>
+        <v>0.8514474714641432</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8917462017814926</v>
+        <v>0.8907901398657082</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2034</v>
@@ -3507,19 +3507,19 @@
         <v>2144090</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2113022</v>
+        <v>2112037</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2171163</v>
+        <v>2170569</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9057002090295306</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8925764932093397</v>
+        <v>0.8921603704933824</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9171363520952216</v>
+        <v>0.9168853850383806</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>30477</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21317</v>
+        <v>20934</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43291</v>
+        <v>42614</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03378251728902711</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02362865647998378</v>
+        <v>0.02320414618484793</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04798626219670683</v>
+        <v>0.04723505557554553</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -3632,19 +3632,19 @@
         <v>79633</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62259</v>
+        <v>62179</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98546</v>
+        <v>98955</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07953520971804295</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06218256674485232</v>
+        <v>0.06210250624023356</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09842517942591208</v>
+        <v>0.09883347800537548</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -3653,19 +3653,19 @@
         <v>110110</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89053</v>
+        <v>90012</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131903</v>
+        <v>130542</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05784947367947844</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04678644840464138</v>
+        <v>0.0472906037601948</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06929901228001296</v>
+        <v>0.06858390963959522</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>871686</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>858872</v>
+        <v>859549</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>880846</v>
+        <v>881229</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9662174827109729</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9520137378032932</v>
+        <v>0.9527649444244545</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9763713435200164</v>
+        <v>0.9767958538151521</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>876</v>
@@ -3703,19 +3703,19 @@
         <v>921593</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>902680</v>
+        <v>902271</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>938967</v>
+        <v>939047</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.920464790281957</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.901574820574088</v>
+        <v>0.9011665219946247</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9378174332551479</v>
+        <v>0.9378974937597665</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1719</v>
@@ -3724,19 +3724,19 @@
         <v>1793279</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1771486</v>
+        <v>1772847</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1814336</v>
+        <v>1813377</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9421505263205215</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.930700987719987</v>
+        <v>0.9314160903604047</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9532135515953587</v>
+        <v>0.9527093962398052</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>23037</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15084</v>
+        <v>14809</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34693</v>
+        <v>34302</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02820243445223831</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01846582193740089</v>
+        <v>0.0181298439326516</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04247242743061629</v>
+        <v>0.04199316343931267</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -3849,19 +3849,19 @@
         <v>47331</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34006</v>
+        <v>33452</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61305</v>
+        <v>63226</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06162102870875799</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04427259632928916</v>
+        <v>0.04355187818246858</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07981374470559982</v>
+        <v>0.08231456726705985</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>64</v>
@@ -3870,19 +3870,19 @@
         <v>70368</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54560</v>
+        <v>55675</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87570</v>
+        <v>89009</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04439787551809007</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03442363790923525</v>
+        <v>0.03512724074287761</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05525091391139753</v>
+        <v>0.05615909305215811</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>793806</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>782150</v>
+        <v>782541</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>801759</v>
+        <v>802034</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9717975655477616</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9575275725693835</v>
+        <v>0.9580068365606874</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9815341780625991</v>
+        <v>0.9818701560673485</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>684</v>
@@ -3920,19 +3920,19 @@
         <v>720770</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>706796</v>
+        <v>704875</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>734095</v>
+        <v>734649</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.938378971291242</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9201862552944001</v>
+        <v>0.9176854327329401</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9557274036707109</v>
+        <v>0.9564481218175314</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1442</v>
@@ -3941,19 +3941,19 @@
         <v>1514576</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1497374</v>
+        <v>1495935</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1530384</v>
+        <v>1529269</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.95560212448191</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9447490860886024</v>
+        <v>0.9438409069478421</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9655763620907647</v>
+        <v>0.9648727592571225</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>17933</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10465</v>
+        <v>11303</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30170</v>
+        <v>31136</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03569692255791547</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02083178222922</v>
+        <v>0.02249983884442541</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0600554994743001</v>
+        <v>0.06197853381044161</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -4066,19 +4066,19 @@
         <v>34610</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23373</v>
+        <v>24140</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48086</v>
+        <v>48979</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07067716818416978</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04773019263217809</v>
+        <v>0.04929489169297713</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09819579595985693</v>
+        <v>0.1000179803964474</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -4087,19 +4087,19 @@
         <v>52544</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38374</v>
+        <v>39425</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>70700</v>
+        <v>69333</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05296363110289704</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03868112845059857</v>
+        <v>0.03974038956901868</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07126562314085047</v>
+        <v>0.06988769219759206</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>484437</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>472200</v>
+        <v>471234</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>491905</v>
+        <v>491067</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9643030774420845</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9399445005257001</v>
+        <v>0.9380214661895581</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9791682177707807</v>
+        <v>0.9775001611555746</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>426</v>
@@ -4137,19 +4137,19 @@
         <v>455088</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>441612</v>
+        <v>440719</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>466325</v>
+        <v>465558</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9293228318158302</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9018042040401431</v>
+        <v>0.8999820196035522</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9522698073678219</v>
+        <v>0.9507051083070228</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>877</v>
@@ -4158,19 +4158,19 @@
         <v>939524</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>921368</v>
+        <v>922735</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>953694</v>
+        <v>952643</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.947036368897103</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9287343768591495</v>
+        <v>0.9301123078024084</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9613188715494014</v>
+        <v>0.9602596104309814</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>136710</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>113914</v>
+        <v>116072</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>161867</v>
+        <v>161678</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04089969591035964</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03407992204747178</v>
+        <v>0.03472532636498889</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04842592480206594</v>
+        <v>0.04836957719620144</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>278</v>
@@ -4283,19 +4283,19 @@
         <v>319551</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>283765</v>
+        <v>285578</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>359153</v>
+        <v>356648</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09116555306465042</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08095607444696867</v>
+        <v>0.08147354871562291</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1024638137887159</v>
+        <v>0.1017492610184885</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>411</v>
@@ -4304,19 +4304,19 @@
         <v>456260</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>418960</v>
+        <v>416617</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>503548</v>
+        <v>503905</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06662943034625105</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06118239386843053</v>
+        <v>0.06084017224811981</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07353506059606256</v>
+        <v>0.07358710084076511</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3205852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3180695</v>
+        <v>3180884</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3228648</v>
+        <v>3226490</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9591003040896403</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.951574075197934</v>
+        <v>0.9516304228037985</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9659200779525282</v>
+        <v>0.965274673635011</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3023</v>
@@ -4354,19 +4354,19 @@
         <v>3185617</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3146015</v>
+        <v>3148520</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3221403</v>
+        <v>3219590</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9088344469353495</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8975361862112842</v>
+        <v>0.8982507389815114</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9190439255530316</v>
+        <v>0.918526451284377</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6072</v>
@@ -4375,19 +4375,19 @@
         <v>6391469</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6344181</v>
+        <v>6343824</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6428769</v>
+        <v>6431112</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.933370569653749</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9264649394039377</v>
+        <v>0.9264128991592351</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9388176061315695</v>
+        <v>0.9391598277518802</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>84106</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>68881</v>
+        <v>67681</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>101603</v>
+        <v>102825</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1689889620393672</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1383985789452128</v>
+        <v>0.1359882281864659</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2041455382436112</v>
+        <v>0.2066007861029072</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>241</v>
@@ -4740,19 +4740,19 @@
         <v>150459</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>132881</v>
+        <v>134054</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>169660</v>
+        <v>169003</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2412833738388968</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2130932185534069</v>
+        <v>0.2149755781946275</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2720748758000783</v>
+        <v>0.2710202121785955</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>332</v>
@@ -4761,19 +4761,19 @@
         <v>234565</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>211728</v>
+        <v>211481</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>260032</v>
+        <v>261612</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.209194227562867</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1888271720887637</v>
+        <v>0.1886070819159947</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2319064786345014</v>
+        <v>0.233315763201128</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>413594</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>396097</v>
+        <v>394875</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428819</v>
+        <v>430019</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.831011037960633</v>
+        <v>0.8310110379606329</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7958544617563889</v>
+        <v>0.7933992138970928</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8616014210547874</v>
+        <v>0.8640117718135341</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>620</v>
@@ -4811,19 +4811,19 @@
         <v>473121</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>453920</v>
+        <v>454577</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>490699</v>
+        <v>489526</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7587166261611031</v>
+        <v>0.758716626161103</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7279251241999218</v>
+        <v>0.7289797878214044</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7869067814465937</v>
+        <v>0.7850244218053716</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>983</v>
@@ -4832,19 +4832,19 @@
         <v>886715</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>861248</v>
+        <v>859668</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>909552</v>
+        <v>909799</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.790805772437133</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7680935213654986</v>
+        <v>0.7666842367988721</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8111728279112366</v>
+        <v>0.8113929180840055</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>85377</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69909</v>
+        <v>69616</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103991</v>
+        <v>104641</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08892196520662465</v>
+        <v>0.08892196520662464</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07281139448853775</v>
+        <v>0.07250649077475295</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1083082872774338</v>
+        <v>0.1089851601956614</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>280</v>
@@ -4957,19 +4957,19 @@
         <v>155705</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>138631</v>
+        <v>138346</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>172957</v>
+        <v>173824</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1396157598774155</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1243055492610358</v>
+        <v>0.12405066435079</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1550851829468956</v>
+        <v>0.1558624275188561</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>387</v>
@@ -4978,19 +4978,19 @@
         <v>241082</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>214211</v>
+        <v>217467</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>266660</v>
+        <v>268737</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1161631753185898</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1032155561368699</v>
+        <v>0.1047844598079296</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1284876192033819</v>
+        <v>0.1294884345806429</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>874760</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>856146</v>
+        <v>855496</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>890228</v>
+        <v>890521</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9110780347933755</v>
+        <v>0.9110780347933756</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8916917127225661</v>
+        <v>0.891014839804338</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9271886055114622</v>
+        <v>0.9274935092252471</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1326</v>
@@ -5028,19 +5028,19 @@
         <v>959536</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>942284</v>
+        <v>941417</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>976610</v>
+        <v>976895</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8603842401225843</v>
+        <v>0.8603842401225844</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8449148170531044</v>
+        <v>0.844137572481144</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8756944507389642</v>
+        <v>0.8759493356492101</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2129</v>
@@ -5049,19 +5049,19 @@
         <v>1834296</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1808718</v>
+        <v>1806641</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1861167</v>
+        <v>1857911</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8838368246814102</v>
+        <v>0.8838368246814101</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8715123807966182</v>
+        <v>0.8705115654193571</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8967844438631302</v>
+        <v>0.8952155401920705</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>52836</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40735</v>
+        <v>39603</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68073</v>
+        <v>67944</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05048962153996357</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03892549422392332</v>
+        <v>0.03784402553812197</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0650492952543366</v>
+        <v>0.06492624401145186</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>154</v>
@@ -5174,19 +5174,19 @@
         <v>90286</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78483</v>
+        <v>76155</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>105936</v>
+        <v>104660</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08623389182779984</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07496114095562492</v>
+        <v>0.07273749050970689</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1011815047571996</v>
+        <v>0.09996369943180704</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>221</v>
@@ -5195,19 +5195,19 @@
         <v>143122</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>123189</v>
+        <v>124811</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>163939</v>
+        <v>165449</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06836607297060067</v>
+        <v>0.06836607297060068</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05884447822491659</v>
+        <v>0.05961955761896325</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07830985007811615</v>
+        <v>0.07903122926010037</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>993643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>978406</v>
+        <v>978535</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1005744</v>
+        <v>1006876</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9495103784600364</v>
+        <v>0.9495103784600365</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9349507047456626</v>
+        <v>0.9350737559885481</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9610745057760763</v>
+        <v>0.9621559744618782</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1361</v>
@@ -5245,19 +5245,19 @@
         <v>956699</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>941049</v>
+        <v>942325</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>968502</v>
+        <v>970830</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9137661081722002</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8988184952428006</v>
+        <v>0.9000363005681926</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9250388590443751</v>
+        <v>0.9272625094902925</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2323</v>
@@ -5266,19 +5266,19 @@
         <v>1950342</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1929525</v>
+        <v>1928015</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1970275</v>
+        <v>1968653</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9316339270293993</v>
+        <v>0.9316339270293994</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.921690149921884</v>
+        <v>0.9209687707398997</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9411555217750838</v>
+        <v>0.940380442381037</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>54698</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42662</v>
+        <v>43204</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71643</v>
+        <v>71020</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05619624327129715</v>
+        <v>0.05619624327129714</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04383029300689464</v>
+        <v>0.04438710428447544</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07360473885311261</v>
+        <v>0.07296454229581506</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>103</v>
@@ -5391,19 +5391,19 @@
         <v>61755</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51274</v>
+        <v>49451</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74258</v>
+        <v>73659</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06811849994496143</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05655672988662003</v>
+        <v>0.05454652017335012</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08190892232422957</v>
+        <v>0.08124843002846441</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>164</v>
@@ -5412,19 +5412,19 @@
         <v>116454</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>99161</v>
+        <v>98829</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>137230</v>
+        <v>135868</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06194568306851704</v>
+        <v>0.06194568306851705</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05274707087976331</v>
+        <v>0.05257044218188791</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07299725972729966</v>
+        <v>0.07227278271674706</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>918648</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>901703</v>
+        <v>902326</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>930684</v>
+        <v>930142</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9438037567287029</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9263952611468874</v>
+        <v>0.9270354577041849</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9561697069931053</v>
+        <v>0.9556128957155245</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1215</v>
@@ -5462,19 +5462,19 @@
         <v>844832</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>832329</v>
+        <v>832928</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>855313</v>
+        <v>857136</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9318815000550387</v>
+        <v>0.9318815000550386</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9180910776757705</v>
+        <v>0.9187515699715361</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9434432701133801</v>
+        <v>0.9454534798266501</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2099</v>
@@ -5483,19 +5483,19 @@
         <v>1763479</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1742703</v>
+        <v>1744065</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1780772</v>
+        <v>1781104</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.938054316931483</v>
+        <v>0.9380543169314829</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9270027402727005</v>
+        <v>0.9277272172832529</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9472529291202367</v>
+        <v>0.9474295578181122</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>277018</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>249985</v>
+        <v>245871</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>312744</v>
+        <v>308733</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07965632450579828</v>
+        <v>0.07965632450579829</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07188297268183487</v>
+        <v>0.07070016532808827</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08992947901344006</v>
+        <v>0.08877601709004537</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>778</v>
@@ -5608,19 +5608,19 @@
         <v>458206</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>426410</v>
+        <v>425572</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>493090</v>
+        <v>490980</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1240945051548512</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1154834283801893</v>
+        <v>0.1152564365808599</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1335420268346821</v>
+        <v>0.1329705695159646</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1104</v>
@@ -5629,19 +5629,19 @@
         <v>735223</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>693262</v>
+        <v>692186</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>781363</v>
+        <v>784955</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1025408390963299</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09668850555119499</v>
+        <v>0.09653847564626571</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.108975890521086</v>
+        <v>0.1094768194132148</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3200644</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3164918</v>
+        <v>3168929</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3227677</v>
+        <v>3231791</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9203436754942017</v>
+        <v>0.9203436754942018</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9100705209865599</v>
+        <v>0.9112239829099545</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9281170273181653</v>
+        <v>0.9292998346719116</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4522</v>
@@ -5679,19 +5679,19 @@
         <v>3234187</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3199303</v>
+        <v>3201413</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3265983</v>
+        <v>3266821</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8759054948451488</v>
+        <v>0.8759054948451487</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.866457973165318</v>
+        <v>0.8670294304840355</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8845165716198108</v>
+        <v>0.8847435634191402</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7534</v>
@@ -5700,19 +5700,19 @@
         <v>6434832</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6388692</v>
+        <v>6385100</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6476793</v>
+        <v>6477869</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.89745916090367</v>
+        <v>0.8974591609036701</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8910241094789142</v>
+        <v>0.8905231805867851</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9033114944488051</v>
+        <v>0.9034615243537345</v>
       </c>
     </row>
     <row r="18">
